--- a/data/input/absenteeism_data_11.xlsx
+++ b/data/input/absenteeism_data_11.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2805</v>
+        <v>87973</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rafaela Pires</t>
+          <t>Marina Vieira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,51 +494,51 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>4639.62</v>
+        <v>11640.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30507</v>
+        <v>957</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Elisa Lopes</t>
+          <t>Srta. Camila Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>8227.08</v>
+        <v>6424.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71406</v>
+        <v>78322</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Letícia Azevedo</t>
+          <t>Melissa Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>12167.81</v>
+        <v>10680.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76325</v>
+        <v>30719</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Laura Rocha</t>
+          <t>Eloah Ferreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,80 +581,80 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45098</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>8759.219999999999</v>
+        <v>8844.559999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36994</v>
+        <v>96232</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gustavo Rocha</t>
+          <t>Dr. Joaquim Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>5757.87</v>
+        <v>9661.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5031</v>
+        <v>81155</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mariane Barbosa</t>
+          <t>Olivia Castro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>3918.57</v>
+        <v>7717.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56218</v>
+        <v>55473</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Henrique Nunes</t>
+          <t>Beatriz da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>9407.18</v>
+        <v>6763.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79405</v>
+        <v>70766</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Ana Laura Gonçalves</t>
+          <t>Dr. Isaac Moreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>8101.81</v>
+        <v>7185.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>59613</v>
+        <v>73677</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nicole da Mata</t>
+          <t>Lucca Barros</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>4842.83</v>
+        <v>12332.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>45912</v>
+        <v>4083</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lucca Ramos</t>
+          <t>Beatriz Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>6095.25</v>
+        <v>6721.21</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_11.xlsx
+++ b/data/input/absenteeism_data_11.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87973</v>
+        <v>72201</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marina Vieira</t>
+          <t>Felipe Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>11640.78</v>
+        <v>3407.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>957</v>
+        <v>82666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Camila Castro</t>
+          <t>Vicente Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>6424.95</v>
+        <v>9700.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78322</v>
+        <v>72237</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Melissa Ramos</t>
+          <t>Diego Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>10680.24</v>
+        <v>12443.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30719</v>
+        <v>64116</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eloah Ferreira</t>
+          <t>Giovanna Alves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>8844.559999999999</v>
+        <v>8716.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96232</v>
+        <v>79470</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Joaquim Cardoso</t>
+          <t>Renan da Paz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,109 +610,109 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>9661.6</v>
+        <v>10733.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>81155</v>
+        <v>3703</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Olivia Castro</t>
+          <t>Gabrielly Fernandes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>7717.27</v>
+        <v>7258.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>55473</v>
+        <v>92636</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Beatriz da Costa</t>
+          <t>Maria Luiza Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45091</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>6763.33</v>
+        <v>9300.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>70766</v>
+        <v>50068</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Isaac Moreira</t>
+          <t>Isaac Correia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>7185.25</v>
+        <v>4716.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73677</v>
+        <v>74403</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lucca Barros</t>
+          <t>Dr. Luiz Fernando Rodrigues</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,31 +722,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>12332.64</v>
+        <v>7555.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4083</v>
+        <v>61282</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beatriz Cunha</t>
+          <t>Sra. Elisa Campos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>6721.21</v>
+        <v>11573.86</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_11.xlsx
+++ b/data/input/absenteeism_data_11.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72201</v>
+        <v>2640</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Felipe Carvalho</t>
+          <t>Laura Monteiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>3407.27</v>
+        <v>4076.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82666</v>
+        <v>65670</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vicente Cardoso</t>
+          <t>Luiz Otávio da Mata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>9700.43</v>
+        <v>4886.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72237</v>
+        <v>8911</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diego Gonçalves</t>
+          <t>João Miguel Monteiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>12443.69</v>
+        <v>2560.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64116</v>
+        <v>22052</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Giovanna Alves</t>
+          <t>Nicole Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>8716.16</v>
+        <v>12337.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79470</v>
+        <v>64904</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Renan da Paz</t>
+          <t>Sarah Barros</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45088</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>10733.85</v>
+        <v>9629.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3703</v>
+        <v>83782</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gabrielly Fernandes</t>
+          <t>Dra. Mariana Ferreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>7258.6</v>
+        <v>5986.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92636</v>
+        <v>81713</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Luiza Moreira</t>
+          <t>Júlia da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>9300.34</v>
+        <v>5570.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50068</v>
+        <v>92630</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isaac Correia</t>
+          <t>Nicolas Ribeiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>4716.16</v>
+        <v>3786.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74403</v>
+        <v>68014</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Luiz Fernando Rodrigues</t>
+          <t>Calebe Cavalcanti</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>7555.19</v>
+        <v>8227.110000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61282</v>
+        <v>47452</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Elisa Campos</t>
+          <t>Ryan Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>11573.86</v>
+        <v>5207.11</v>
       </c>
     </row>
   </sheetData>
